--- a/【小轮子】/data/rain.xlsx
+++ b/【小轮子】/data/rain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6B6942-9F89-43C3-A76F-A134ABCB2000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A98969-95B3-480D-90FF-4CFDF9266776}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="7500" xr2:uid="{18B2D596-0A8F-41C5-8D2E-81991DD4A49A}"/>
   </bookViews>
@@ -396,19 +396,19 @@
         <v>0.75529153354632583</v>
       </c>
       <c r="B1">
-        <v>127</v>
+        <v>6.4838923775973863E-3</v>
       </c>
       <c r="C1">
         <v>0.75045993458708093</v>
       </c>
       <c r="D1">
-        <v>127</v>
+        <v>9.456440804169769E-3</v>
       </c>
       <c r="E1">
         <v>0.73821017452655036</v>
       </c>
       <c r="F1">
-        <v>12</v>
+        <v>8.1081081081081086E-3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -416,19 +416,19 @@
         <v>8.6801118210862616E-2</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>7.3614877954281286E-3</v>
       </c>
       <c r="C2">
         <v>8.5266762060506956E-2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>7.7605321507760536E-3</v>
       </c>
       <c r="E2">
         <v>0.11919792053471964</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2.100840336134454E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -436,19 +436,19 @@
         <v>9.5147763578274758E-2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>4.6199076018479633E-3</v>
       </c>
       <c r="C3">
         <v>0.10067457072771872</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>3.875968992248062E-3</v>
       </c>
       <c r="E3">
         <v>8.800594132937245E-2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>6.0975609756097563E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -456,19 +456,19 @@
         <v>1.2220447284345048E-2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>0.14840989399293286</v>
       </c>
       <c r="C4">
         <v>1.2622649223221587E-2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2.0661157024793389E-2</v>
       </c>
       <c r="E4">
         <v>1.0025993316004456E-2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -476,13 +476,13 @@
         <v>3.9596645367412142E-2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.1173184357541898E-3</v>
       </c>
       <c r="C5">
         <v>3.917109566639411E-2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4.6153846153846158E-3</v>
       </c>
       <c r="E5">
         <v>3.1191979205347196E-2</v>
